--- a/RankingPadel.xlsx
+++ b/RankingPadel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\Documentos\Padel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1941399-637F-4A20-BD8F-E17405CA3091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CC909A-A307-433F-A02F-0AC9799B946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>Pareja 1</t>
   </si>
@@ -792,7 +792,7 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,33 +1253,65 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>45908</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>EMPATE</v>
+        <v>Pareja 1</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>45908</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EMPATE</v>
